--- a/biology/Zoologie/Gryphaeidae/Gryphaeidae.xlsx
+++ b/biology/Zoologie/Gryphaeidae/Gryphaeidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gryphaeidae sont une famille de mollusques bivalves de l'ordre des Ostreida, vivantes ou fossiles.
 </t>
@@ -511,7 +523,9 @@
           <t>Fossiles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gryphaeidae, très abondantes dans certains dépôts du Lias, caractérisent le « Calcaire à gryphées », une roche lumachellique très utilisée dans certaines régions pour la construction et les dallages.
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Gryphaeidae a été décrite pour le géologue ukrainien Oleg Stepanovich Vyalov (23 janvier 1904 - 1er juin 1988) en 19361936[1],[2],[3]. Elle comporte de très nombreux groupes fossiles parfois très abondants dans certains calcaires, mais aussi une poignée de genres actuels. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Gryphaeidae a été décrite pour le géologue ukrainien Oleg Stepanovich Vyalov (23 janvier 1904 - 1er juin 1988) en 19361936. Elle comporte de très nombreux groupes fossiles parfois très abondants dans certains calcaires, mais aussi une poignée de genres actuels. 
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des genres et espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (9 janvier 2015)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (9 janvier 2015) :
 sous-famille Pycnodonteinae Stenzel, 1959
 genre Empressostrea Huber &amp; Lorenz, 2007
 espèce Empressostrea kostini M. Huber &amp; Lorenz, 2007
@@ -593,7 +611,7 @@
 espèce Pycnodonte taniguchii Hayami &amp; Kase, 1992
 genre Crenostrea Marwick, 1931 †
 genre Gryphaea Lamarck, 1801 †
-Classification des taxons fossiles selon Paleobiology Database                   (9 janvier 2015)[5][2] :
+Classification des taxons fossiles selon Paleobiology Database                   (9 janvier 2015) :
 Sous-famille †Exogyrinae Vialov, 1936
 Genre  †Aetostreon Bayle, 1878 (discuté)
 Genre  †Amphidonte Fischer von Waldheim, 1829
